--- a/data/tower_count/tower_count_2009.xlsx
+++ b/data/tower_count/tower_count_2009.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9657FEB5-6ECB-4D43-B133-8D072DFC686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -43,9 +49,6 @@
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>FOG</t>
   </si>
   <si>
     <t>17 DCCO flew over</t>
@@ -114,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,6 +159,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -204,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,9 +243,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,18 +487,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -486,7 +526,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>41434</v>
+        <v>39973</v>
       </c>
       <c r="B4">
         <v>150</v>
@@ -509,7 +549,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>41435</v>
+        <v>39974</v>
       </c>
       <c r="B5">
         <v>156</v>
@@ -532,360 +572,390 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41436</v>
-      </c>
-      <c r="B6" t="s">
+        <v>39975</v>
+      </c>
+      <c r="B6">
+        <v>169</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>232</v>
+      </c>
+      <c r="E6">
+        <v>52</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41437</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>39976</v>
+      </c>
+      <c r="B7">
+        <v>159</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>228</v>
+      </c>
+      <c r="E7">
+        <v>62</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41438</v>
+        <v>39977</v>
       </c>
       <c r="B8">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="E8">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41439</v>
+        <v>39978</v>
       </c>
       <c r="B9">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41440</v>
+        <v>39979</v>
       </c>
       <c r="B10">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>137</v>
+      </c>
+      <c r="E10">
         <v>45</v>
       </c>
-      <c r="D10">
-        <v>307</v>
-      </c>
-      <c r="E10">
-        <v>79</v>
-      </c>
       <c r="F10">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41441</v>
+        <v>39980</v>
       </c>
       <c r="B11">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="E11">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41442</v>
+        <v>39981</v>
       </c>
       <c r="B12">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F12">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41443</v>
+        <v>39982</v>
       </c>
       <c r="B13">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E13">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41446</v>
+        <v>39983</v>
       </c>
       <c r="B14">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="E14">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41448</v>
+        <v>39984</v>
       </c>
       <c r="B15">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E15">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41461</v>
+        <v>39985</v>
       </c>
       <c r="B16">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41462</v>
+        <v>39986</v>
       </c>
       <c r="B17">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="C17">
         <v>25</v>
       </c>
       <c r="D17">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41464</v>
+        <v>39987</v>
       </c>
       <c r="B18">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="E18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41465</v>
+        <v>39988</v>
       </c>
       <c r="B19">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41466</v>
+        <v>39989</v>
       </c>
       <c r="B20">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41468</v>
+        <v>39990</v>
       </c>
       <c r="B21">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E21">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41469</v>
+        <v>39991</v>
       </c>
       <c r="B22">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
@@ -893,186 +963,140 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41470</v>
+        <v>39992</v>
       </c>
       <c r="B23">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E23">
         <v>32</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41471</v>
+        <v>39993</v>
       </c>
       <c r="B24">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41475</v>
+        <v>39994</v>
       </c>
       <c r="B25">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>183</v>
+      </c>
+      <c r="E25">
         <v>17</v>
-      </c>
-      <c r="D25">
-        <v>175</v>
-      </c>
-      <c r="E25">
-        <v>32</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41476</v>
+        <v>39995</v>
       </c>
       <c r="B26">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>261</v>
+        <v>115</v>
       </c>
       <c r="E26">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41478</v>
+        <v>39996</v>
       </c>
       <c r="B27">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="E27">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41480</v>
+        <v>39997</v>
       </c>
       <c r="B28">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="E28">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>41495</v>
-      </c>
-      <c r="B29">
-        <v>203</v>
-      </c>
-      <c r="C29">
-        <v>17</v>
-      </c>
-      <c r="D29">
-        <v>209</v>
-      </c>
-      <c r="E29">
-        <v>185</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>41496</v>
-      </c>
-      <c r="B30">
-        <v>128</v>
-      </c>
-      <c r="C30">
-        <v>44</v>
-      </c>
-      <c r="D30">
-        <v>238</v>
-      </c>
-      <c r="E30">
-        <v>91</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1081,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1093,7 +1117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/tower_count/tower_count_2009.xlsx
+++ b/data/tower_count/tower_count_2009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9657FEB5-6ECB-4D43-B133-8D072DFC686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16899A5A-01B6-46FE-845A-5D88B979C168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
